--- a/po_analysis_by_asin/B0CSJWWDS7_po_data.xlsx
+++ b/po_analysis_by_asin/B0CSJWWDS7_po_data.xlsx
@@ -452,7 +452,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45306</v>
+        <v>45312.99999999999</v>
       </c>
       <c r="B2" t="n">
         <v>60</v>
@@ -460,7 +460,7 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45313</v>
+        <v>45319.99999999999</v>
       </c>
       <c r="B3" t="n">
         <v>150</v>
@@ -468,7 +468,7 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45327</v>
+        <v>45333.99999999999</v>
       </c>
       <c r="B4" t="n">
         <v>210</v>
@@ -476,7 +476,7 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45334</v>
+        <v>45340.99999999999</v>
       </c>
       <c r="B5" t="n">
         <v>30</v>
@@ -484,7 +484,7 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45341</v>
+        <v>45347.99999999999</v>
       </c>
       <c r="B6" t="n">
         <v>180</v>
@@ -492,7 +492,7 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45348</v>
+        <v>45354.99999999999</v>
       </c>
       <c r="B7" t="n">
         <v>630</v>
@@ -500,7 +500,7 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45362</v>
+        <v>45368.99999999999</v>
       </c>
       <c r="B8" t="n">
         <v>20</v>
@@ -508,7 +508,7 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45369</v>
+        <v>45375.99999999999</v>
       </c>
       <c r="B9" t="n">
         <v>160</v>
@@ -516,7 +516,7 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45376</v>
+        <v>45382.99999999999</v>
       </c>
       <c r="B10" t="n">
         <v>20</v>
@@ -524,7 +524,7 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45383</v>
+        <v>45389.99999999999</v>
       </c>
       <c r="B11" t="n">
         <v>100</v>
@@ -532,7 +532,7 @@
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45390</v>
+        <v>45396.99999999999</v>
       </c>
       <c r="B12" t="n">
         <v>360</v>
@@ -540,7 +540,7 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45397</v>
+        <v>45403.99999999999</v>
       </c>
       <c r="B13" t="n">
         <v>1000</v>
@@ -548,7 +548,7 @@
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45411</v>
+        <v>45417.99999999999</v>
       </c>
       <c r="B14" t="n">
         <v>20</v>
@@ -556,7 +556,7 @@
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>45418</v>
+        <v>45424.99999999999</v>
       </c>
       <c r="B15" t="n">
         <v>460</v>
@@ -564,7 +564,7 @@
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>45425</v>
+        <v>45431.99999999999</v>
       </c>
       <c r="B16" t="n">
         <v>220</v>
@@ -572,7 +572,7 @@
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>45432</v>
+        <v>45438.99999999999</v>
       </c>
       <c r="B17" t="n">
         <v>200</v>
@@ -580,7 +580,7 @@
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>45439</v>
+        <v>45445.99999999999</v>
       </c>
       <c r="B18" t="n">
         <v>400</v>
@@ -588,7 +588,7 @@
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>45446</v>
+        <v>45452.99999999999</v>
       </c>
       <c r="B19" t="n">
         <v>760</v>
@@ -596,7 +596,7 @@
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>45460</v>
+        <v>45466.99999999999</v>
       </c>
       <c r="B20" t="n">
         <v>20</v>
@@ -604,7 +604,7 @@
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>45467</v>
+        <v>45473.99999999999</v>
       </c>
       <c r="B21" t="n">
         <v>60</v>
@@ -612,7 +612,7 @@
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>45481</v>
+        <v>45487.99999999999</v>
       </c>
       <c r="B22" t="n">
         <v>60</v>
@@ -620,7 +620,7 @@
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>45488</v>
+        <v>45494.99999999999</v>
       </c>
       <c r="B23" t="n">
         <v>820</v>
@@ -628,7 +628,7 @@
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>45551</v>
+        <v>45557.99999999999</v>
       </c>
       <c r="B24" t="n">
         <v>500</v>
@@ -636,7 +636,7 @@
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>45565</v>
+        <v>45571.99999999999</v>
       </c>
       <c r="B25" t="n">
         <v>20</v>
@@ -644,7 +644,7 @@
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>45572</v>
+        <v>45578.99999999999</v>
       </c>
       <c r="B26" t="n">
         <v>20</v>
@@ -652,7 +652,7 @@
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>45586</v>
+        <v>45592.99999999999</v>
       </c>
       <c r="B27" t="n">
         <v>520</v>
@@ -660,7 +660,7 @@
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>45593</v>
+        <v>45599.99999999999</v>
       </c>
       <c r="B28" t="n">
         <v>60</v>
@@ -668,7 +668,7 @@
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>45600</v>
+        <v>45606.99999999999</v>
       </c>
       <c r="B29" t="n">
         <v>60</v>
@@ -676,7 +676,7 @@
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>45607</v>
+        <v>45613.99999999999</v>
       </c>
       <c r="B30" t="n">
         <v>20</v>
@@ -715,7 +715,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45292</v>
+        <v>45322.99999999999</v>
       </c>
       <c r="B2" t="n">
         <v>210</v>
@@ -723,7 +723,7 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45323</v>
+        <v>45351.99999999999</v>
       </c>
       <c r="B3" t="n">
         <v>1050</v>
@@ -731,7 +731,7 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45352</v>
+        <v>45382.99999999999</v>
       </c>
       <c r="B4" t="n">
         <v>200</v>
@@ -739,7 +739,7 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45383</v>
+        <v>45412.99999999999</v>
       </c>
       <c r="B5" t="n">
         <v>1460</v>
@@ -747,7 +747,7 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45413</v>
+        <v>45443.99999999999</v>
       </c>
       <c r="B6" t="n">
         <v>1300</v>
@@ -755,7 +755,7 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45444</v>
+        <v>45473.99999999999</v>
       </c>
       <c r="B7" t="n">
         <v>840</v>
@@ -763,7 +763,7 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45474</v>
+        <v>45504.99999999999</v>
       </c>
       <c r="B8" t="n">
         <v>880</v>
@@ -771,7 +771,7 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45536</v>
+        <v>45565.99999999999</v>
       </c>
       <c r="B9" t="n">
         <v>500</v>
@@ -779,7 +779,7 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45566</v>
+        <v>45596.99999999999</v>
       </c>
       <c r="B10" t="n">
         <v>620</v>
@@ -787,7 +787,7 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45597</v>
+        <v>45626.99999999999</v>
       </c>
       <c r="B11" t="n">
         <v>80</v>

--- a/po_analysis_by_asin/B0CSJWWDS7_po_data.xlsx
+++ b/po_analysis_by_asin/B0CSJWWDS7_po_data.xlsx
@@ -9,6 +9,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Weekly Quantity" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Monthly Trend" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PO Forecast" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -446,7 +447,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Requested quantity</t>
+          <t>Weekly_PO_Qty</t>
         </is>
       </c>
     </row>
@@ -709,7 +710,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Requested quantity</t>
+          <t>Monthly_PO_Qty</t>
         </is>
       </c>
     </row>
@@ -791,6 +792,565 @@
       </c>
       <c r="B11" t="n">
         <v>80</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D38"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ds</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>PO_Forecast</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>yhat_lower</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>yhat_upper</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>45312.99999999999</v>
+      </c>
+      <c r="B2" t="n">
+        <v>260</v>
+      </c>
+      <c r="C2" t="n">
+        <v>-74.09028283621826</v>
+      </c>
+      <c r="D2" t="n">
+        <v>616.7595474675844</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>45319.99999999999</v>
+      </c>
+      <c r="B3" t="n">
+        <v>260</v>
+      </c>
+      <c r="C3" t="n">
+        <v>-75.04745294572182</v>
+      </c>
+      <c r="D3" t="n">
+        <v>615.2178649297504</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>45333.99999999999</v>
+      </c>
+      <c r="B4" t="n">
+        <v>258</v>
+      </c>
+      <c r="C4" t="n">
+        <v>-91.59674654370421</v>
+      </c>
+      <c r="D4" t="n">
+        <v>627.6343376509058</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>45340.99999999999</v>
+      </c>
+      <c r="B5" t="n">
+        <v>257</v>
+      </c>
+      <c r="C5" t="n">
+        <v>-78.9553813146468</v>
+      </c>
+      <c r="D5" t="n">
+        <v>587.0384505591194</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>45347.99999999999</v>
+      </c>
+      <c r="B6" t="n">
+        <v>257</v>
+      </c>
+      <c r="C6" t="n">
+        <v>-87.00780581423159</v>
+      </c>
+      <c r="D6" t="n">
+        <v>572.6717446991277</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>45354.99999999999</v>
+      </c>
+      <c r="B7" t="n">
+        <v>256</v>
+      </c>
+      <c r="C7" t="n">
+        <v>-90.74080596723003</v>
+      </c>
+      <c r="D7" t="n">
+        <v>598.2613373277964</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>45368.99999999999</v>
+      </c>
+      <c r="B8" t="n">
+        <v>254</v>
+      </c>
+      <c r="C8" t="n">
+        <v>-86.86607770057932</v>
+      </c>
+      <c r="D8" t="n">
+        <v>616.4313293992819</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>45375.99999999999</v>
+      </c>
+      <c r="B9" t="n">
+        <v>254</v>
+      </c>
+      <c r="C9" t="n">
+        <v>-99.4512911495152</v>
+      </c>
+      <c r="D9" t="n">
+        <v>574.6197024585542</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>45382.99999999999</v>
+      </c>
+      <c r="B10" t="n">
+        <v>253</v>
+      </c>
+      <c r="C10" t="n">
+        <v>-104.0509961667969</v>
+      </c>
+      <c r="D10" t="n">
+        <v>592.3533088636977</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>45389.99999999999</v>
+      </c>
+      <c r="B11" t="n">
+        <v>252</v>
+      </c>
+      <c r="C11" t="n">
+        <v>-105.457981448454</v>
+      </c>
+      <c r="D11" t="n">
+        <v>602.3025668915893</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45396.99999999999</v>
+      </c>
+      <c r="B12" t="n">
+        <v>251</v>
+      </c>
+      <c r="C12" t="n">
+        <v>-101.4987982507167</v>
+      </c>
+      <c r="D12" t="n">
+        <v>592.1878417441991</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45403.99999999999</v>
+      </c>
+      <c r="B13" t="n">
+        <v>251</v>
+      </c>
+      <c r="C13" t="n">
+        <v>-76.80678925544193</v>
+      </c>
+      <c r="D13" t="n">
+        <v>605.2905537110588</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45417.99999999999</v>
+      </c>
+      <c r="B14" t="n">
+        <v>249</v>
+      </c>
+      <c r="C14" t="n">
+        <v>-84.85413081937122</v>
+      </c>
+      <c r="D14" t="n">
+        <v>592.7264199932772</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>45424.99999999999</v>
+      </c>
+      <c r="B15" t="n">
+        <v>249</v>
+      </c>
+      <c r="C15" t="n">
+        <v>-122.1562240361304</v>
+      </c>
+      <c r="D15" t="n">
+        <v>606.4185622229065</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>45431.99999999999</v>
+      </c>
+      <c r="B16" t="n">
+        <v>248</v>
+      </c>
+      <c r="C16" t="n">
+        <v>-116.649317987699</v>
+      </c>
+      <c r="D16" t="n">
+        <v>599.108055333489</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>45438.99999999999</v>
+      </c>
+      <c r="B17" t="n">
+        <v>247</v>
+      </c>
+      <c r="C17" t="n">
+        <v>-72.75982988320141</v>
+      </c>
+      <c r="D17" t="n">
+        <v>623.0977340235831</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>45445.99999999999</v>
+      </c>
+      <c r="B18" t="n">
+        <v>246</v>
+      </c>
+      <c r="C18" t="n">
+        <v>-83.05243639658596</v>
+      </c>
+      <c r="D18" t="n">
+        <v>583.4948970784508</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>45452.99999999999</v>
+      </c>
+      <c r="B19" t="n">
+        <v>246</v>
+      </c>
+      <c r="C19" t="n">
+        <v>-89.34622342703673</v>
+      </c>
+      <c r="D19" t="n">
+        <v>575.5803520328387</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>45466.99999999999</v>
+      </c>
+      <c r="B20" t="n">
+        <v>244</v>
+      </c>
+      <c r="C20" t="n">
+        <v>-103.4163053044872</v>
+      </c>
+      <c r="D20" t="n">
+        <v>579.3162693663268</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>45473.99999999999</v>
+      </c>
+      <c r="B21" t="n">
+        <v>243</v>
+      </c>
+      <c r="C21" t="n">
+        <v>-106.4625370810917</v>
+      </c>
+      <c r="D21" t="n">
+        <v>574.6327747404348</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>45487.99999999999</v>
+      </c>
+      <c r="B22" t="n">
+        <v>242</v>
+      </c>
+      <c r="C22" t="n">
+        <v>-112.4728905118561</v>
+      </c>
+      <c r="D22" t="n">
+        <v>568.1626078663191</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>45494.99999999999</v>
+      </c>
+      <c r="B23" t="n">
+        <v>241</v>
+      </c>
+      <c r="C23" t="n">
+        <v>-99.0831913347275</v>
+      </c>
+      <c r="D23" t="n">
+        <v>581.9965724644886</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>45557.99999999999</v>
+      </c>
+      <c r="B24" t="n">
+        <v>235</v>
+      </c>
+      <c r="C24" t="n">
+        <v>-130.1589827229246</v>
+      </c>
+      <c r="D24" t="n">
+        <v>583.1627404163928</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>45571.99999999999</v>
+      </c>
+      <c r="B25" t="n">
+        <v>233</v>
+      </c>
+      <c r="C25" t="n">
+        <v>-107.703075432073</v>
+      </c>
+      <c r="D25" t="n">
+        <v>572.8578027091633</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>45578.99999999999</v>
+      </c>
+      <c r="B26" t="n">
+        <v>232</v>
+      </c>
+      <c r="C26" t="n">
+        <v>-115.2412489228586</v>
+      </c>
+      <c r="D26" t="n">
+        <v>570.2600796173292</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>45592.99999999999</v>
+      </c>
+      <c r="B27" t="n">
+        <v>231</v>
+      </c>
+      <c r="C27" t="n">
+        <v>-108.5718016576266</v>
+      </c>
+      <c r="D27" t="n">
+        <v>569.5754567410589</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>45599.99999999999</v>
+      </c>
+      <c r="B28" t="n">
+        <v>230</v>
+      </c>
+      <c r="C28" t="n">
+        <v>-109.3311863916319</v>
+      </c>
+      <c r="D28" t="n">
+        <v>580.0064505398418</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>45606.99999999999</v>
+      </c>
+      <c r="B29" t="n">
+        <v>229</v>
+      </c>
+      <c r="C29" t="n">
+        <v>-122.3962758980058</v>
+      </c>
+      <c r="D29" t="n">
+        <v>600.9495204308572</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>45613.99999999999</v>
+      </c>
+      <c r="B30" t="n">
+        <v>229</v>
+      </c>
+      <c r="C30" t="n">
+        <v>-99.50032695944786</v>
+      </c>
+      <c r="D30" t="n">
+        <v>571.1479570040548</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>45620.99999999999</v>
+      </c>
+      <c r="B31" t="n">
+        <v>228</v>
+      </c>
+      <c r="C31" t="n">
+        <v>-90.9910154087279</v>
+      </c>
+      <c r="D31" t="n">
+        <v>557.2510468682502</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>45627.99999999999</v>
+      </c>
+      <c r="B32" t="n">
+        <v>227</v>
+      </c>
+      <c r="C32" t="n">
+        <v>-149.7896568311633</v>
+      </c>
+      <c r="D32" t="n">
+        <v>573.4823803575476</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>45634.99999999999</v>
+      </c>
+      <c r="B33" t="n">
+        <v>226</v>
+      </c>
+      <c r="C33" t="n">
+        <v>-114.0776621243043</v>
+      </c>
+      <c r="D33" t="n">
+        <v>588.7749011796632</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>45641.99999999999</v>
+      </c>
+      <c r="B34" t="n">
+        <v>226</v>
+      </c>
+      <c r="C34" t="n">
+        <v>-140.2271731815216</v>
+      </c>
+      <c r="D34" t="n">
+        <v>559.3917067056352</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>45648.99999999999</v>
+      </c>
+      <c r="B35" t="n">
+        <v>225</v>
+      </c>
+      <c r="C35" t="n">
+        <v>-93.59552944340169</v>
+      </c>
+      <c r="D35" t="n">
+        <v>562.8021636247668</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>45655.99999999999</v>
+      </c>
+      <c r="B36" t="n">
+        <v>224</v>
+      </c>
+      <c r="C36" t="n">
+        <v>-125.2984451269411</v>
+      </c>
+      <c r="D36" t="n">
+        <v>574.5164028836153</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>45662.99999999999</v>
+      </c>
+      <c r="B37" t="n">
+        <v>224</v>
+      </c>
+      <c r="C37" t="n">
+        <v>-144.5042186546807</v>
+      </c>
+      <c r="D37" t="n">
+        <v>544.4485395715994</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>45669.99999999999</v>
+      </c>
+      <c r="B38" t="n">
+        <v>223</v>
+      </c>
+      <c r="C38" t="n">
+        <v>-115.7705776649244</v>
+      </c>
+      <c r="D38" t="n">
+        <v>563.7517488437637</v>
       </c>
     </row>
   </sheetData>

--- a/po_analysis_by_asin/B0CSJWWDS7_po_data.xlsx
+++ b/po_analysis_by_asin/B0CSJWWDS7_po_data.xlsx
@@ -805,7 +805,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D38"/>
+  <dimension ref="A1:B38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -824,16 +824,6 @@
           <t>PO_Forecast</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>yhat_lower</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>yhat_upper</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
@@ -842,12 +832,6 @@
       <c r="B2" t="n">
         <v>260</v>
       </c>
-      <c r="C2" t="n">
-        <v>-74.09028283621826</v>
-      </c>
-      <c r="D2" t="n">
-        <v>616.7595474675844</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
@@ -856,12 +840,6 @@
       <c r="B3" t="n">
         <v>260</v>
       </c>
-      <c r="C3" t="n">
-        <v>-75.04745294572182</v>
-      </c>
-      <c r="D3" t="n">
-        <v>615.2178649297504</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
@@ -870,12 +848,6 @@
       <c r="B4" t="n">
         <v>258</v>
       </c>
-      <c r="C4" t="n">
-        <v>-91.59674654370421</v>
-      </c>
-      <c r="D4" t="n">
-        <v>627.6343376509058</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
@@ -884,12 +856,6 @@
       <c r="B5" t="n">
         <v>257</v>
       </c>
-      <c r="C5" t="n">
-        <v>-78.9553813146468</v>
-      </c>
-      <c r="D5" t="n">
-        <v>587.0384505591194</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -898,12 +864,6 @@
       <c r="B6" t="n">
         <v>257</v>
       </c>
-      <c r="C6" t="n">
-        <v>-87.00780581423159</v>
-      </c>
-      <c r="D6" t="n">
-        <v>572.6717446991277</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
@@ -912,12 +872,6 @@
       <c r="B7" t="n">
         <v>256</v>
       </c>
-      <c r="C7" t="n">
-        <v>-90.74080596723003</v>
-      </c>
-      <c r="D7" t="n">
-        <v>598.2613373277964</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -926,12 +880,6 @@
       <c r="B8" t="n">
         <v>254</v>
       </c>
-      <c r="C8" t="n">
-        <v>-86.86607770057932</v>
-      </c>
-      <c r="D8" t="n">
-        <v>616.4313293992819</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
@@ -940,12 +888,6 @@
       <c r="B9" t="n">
         <v>254</v>
       </c>
-      <c r="C9" t="n">
-        <v>-99.4512911495152</v>
-      </c>
-      <c r="D9" t="n">
-        <v>574.6197024585542</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
@@ -954,12 +896,6 @@
       <c r="B10" t="n">
         <v>253</v>
       </c>
-      <c r="C10" t="n">
-        <v>-104.0509961667969</v>
-      </c>
-      <c r="D10" t="n">
-        <v>592.3533088636977</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
@@ -968,12 +904,6 @@
       <c r="B11" t="n">
         <v>252</v>
       </c>
-      <c r="C11" t="n">
-        <v>-105.457981448454</v>
-      </c>
-      <c r="D11" t="n">
-        <v>602.3025668915893</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
@@ -982,12 +912,6 @@
       <c r="B12" t="n">
         <v>251</v>
       </c>
-      <c r="C12" t="n">
-        <v>-101.4987982507167</v>
-      </c>
-      <c r="D12" t="n">
-        <v>592.1878417441991</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
@@ -996,12 +920,6 @@
       <c r="B13" t="n">
         <v>251</v>
       </c>
-      <c r="C13" t="n">
-        <v>-76.80678925544193</v>
-      </c>
-      <c r="D13" t="n">
-        <v>605.2905537110588</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
@@ -1010,12 +928,6 @@
       <c r="B14" t="n">
         <v>249</v>
       </c>
-      <c r="C14" t="n">
-        <v>-84.85413081937122</v>
-      </c>
-      <c r="D14" t="n">
-        <v>592.7264199932772</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
@@ -1024,12 +936,6 @@
       <c r="B15" t="n">
         <v>249</v>
       </c>
-      <c r="C15" t="n">
-        <v>-122.1562240361304</v>
-      </c>
-      <c r="D15" t="n">
-        <v>606.4185622229065</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
@@ -1038,12 +944,6 @@
       <c r="B16" t="n">
         <v>248</v>
       </c>
-      <c r="C16" t="n">
-        <v>-116.649317987699</v>
-      </c>
-      <c r="D16" t="n">
-        <v>599.108055333489</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
@@ -1052,12 +952,6 @@
       <c r="B17" t="n">
         <v>247</v>
       </c>
-      <c r="C17" t="n">
-        <v>-72.75982988320141</v>
-      </c>
-      <c r="D17" t="n">
-        <v>623.0977340235831</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
@@ -1066,12 +960,6 @@
       <c r="B18" t="n">
         <v>246</v>
       </c>
-      <c r="C18" t="n">
-        <v>-83.05243639658596</v>
-      </c>
-      <c r="D18" t="n">
-        <v>583.4948970784508</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
@@ -1080,12 +968,6 @@
       <c r="B19" t="n">
         <v>246</v>
       </c>
-      <c r="C19" t="n">
-        <v>-89.34622342703673</v>
-      </c>
-      <c r="D19" t="n">
-        <v>575.5803520328387</v>
-      </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
@@ -1094,12 +976,6 @@
       <c r="B20" t="n">
         <v>244</v>
       </c>
-      <c r="C20" t="n">
-        <v>-103.4163053044872</v>
-      </c>
-      <c r="D20" t="n">
-        <v>579.3162693663268</v>
-      </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
@@ -1108,12 +984,6 @@
       <c r="B21" t="n">
         <v>243</v>
       </c>
-      <c r="C21" t="n">
-        <v>-106.4625370810917</v>
-      </c>
-      <c r="D21" t="n">
-        <v>574.6327747404348</v>
-      </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
@@ -1122,12 +992,6 @@
       <c r="B22" t="n">
         <v>242</v>
       </c>
-      <c r="C22" t="n">
-        <v>-112.4728905118561</v>
-      </c>
-      <c r="D22" t="n">
-        <v>568.1626078663191</v>
-      </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
@@ -1136,12 +1000,6 @@
       <c r="B23" t="n">
         <v>241</v>
       </c>
-      <c r="C23" t="n">
-        <v>-99.0831913347275</v>
-      </c>
-      <c r="D23" t="n">
-        <v>581.9965724644886</v>
-      </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
@@ -1150,12 +1008,6 @@
       <c r="B24" t="n">
         <v>235</v>
       </c>
-      <c r="C24" t="n">
-        <v>-130.1589827229246</v>
-      </c>
-      <c r="D24" t="n">
-        <v>583.1627404163928</v>
-      </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
@@ -1164,12 +1016,6 @@
       <c r="B25" t="n">
         <v>233</v>
       </c>
-      <c r="C25" t="n">
-        <v>-107.703075432073</v>
-      </c>
-      <c r="D25" t="n">
-        <v>572.8578027091633</v>
-      </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
@@ -1178,12 +1024,6 @@
       <c r="B26" t="n">
         <v>232</v>
       </c>
-      <c r="C26" t="n">
-        <v>-115.2412489228586</v>
-      </c>
-      <c r="D26" t="n">
-        <v>570.2600796173292</v>
-      </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
@@ -1192,12 +1032,6 @@
       <c r="B27" t="n">
         <v>231</v>
       </c>
-      <c r="C27" t="n">
-        <v>-108.5718016576266</v>
-      </c>
-      <c r="D27" t="n">
-        <v>569.5754567410589</v>
-      </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
@@ -1206,12 +1040,6 @@
       <c r="B28" t="n">
         <v>230</v>
       </c>
-      <c r="C28" t="n">
-        <v>-109.3311863916319</v>
-      </c>
-      <c r="D28" t="n">
-        <v>580.0064505398418</v>
-      </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
@@ -1220,12 +1048,6 @@
       <c r="B29" t="n">
         <v>229</v>
       </c>
-      <c r="C29" t="n">
-        <v>-122.3962758980058</v>
-      </c>
-      <c r="D29" t="n">
-        <v>600.9495204308572</v>
-      </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
@@ -1234,12 +1056,6 @@
       <c r="B30" t="n">
         <v>229</v>
       </c>
-      <c r="C30" t="n">
-        <v>-99.50032695944786</v>
-      </c>
-      <c r="D30" t="n">
-        <v>571.1479570040548</v>
-      </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
@@ -1248,12 +1064,6 @@
       <c r="B31" t="n">
         <v>228</v>
       </c>
-      <c r="C31" t="n">
-        <v>-90.9910154087279</v>
-      </c>
-      <c r="D31" t="n">
-        <v>557.2510468682502</v>
-      </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
@@ -1262,12 +1072,6 @@
       <c r="B32" t="n">
         <v>227</v>
       </c>
-      <c r="C32" t="n">
-        <v>-149.7896568311633</v>
-      </c>
-      <c r="D32" t="n">
-        <v>573.4823803575476</v>
-      </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
@@ -1276,12 +1080,6 @@
       <c r="B33" t="n">
         <v>226</v>
       </c>
-      <c r="C33" t="n">
-        <v>-114.0776621243043</v>
-      </c>
-      <c r="D33" t="n">
-        <v>588.7749011796632</v>
-      </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
@@ -1290,12 +1088,6 @@
       <c r="B34" t="n">
         <v>226</v>
       </c>
-      <c r="C34" t="n">
-        <v>-140.2271731815216</v>
-      </c>
-      <c r="D34" t="n">
-        <v>559.3917067056352</v>
-      </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
@@ -1304,12 +1096,6 @@
       <c r="B35" t="n">
         <v>225</v>
       </c>
-      <c r="C35" t="n">
-        <v>-93.59552944340169</v>
-      </c>
-      <c r="D35" t="n">
-        <v>562.8021636247668</v>
-      </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
@@ -1318,12 +1104,6 @@
       <c r="B36" t="n">
         <v>224</v>
       </c>
-      <c r="C36" t="n">
-        <v>-125.2984451269411</v>
-      </c>
-      <c r="D36" t="n">
-        <v>574.5164028836153</v>
-      </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
@@ -1332,12 +1112,6 @@
       <c r="B37" t="n">
         <v>224</v>
       </c>
-      <c r="C37" t="n">
-        <v>-144.5042186546807</v>
-      </c>
-      <c r="D37" t="n">
-        <v>544.4485395715994</v>
-      </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
@@ -1345,12 +1119,6 @@
       </c>
       <c r="B38" t="n">
         <v>223</v>
-      </c>
-      <c r="C38" t="n">
-        <v>-115.7705776649244</v>
-      </c>
-      <c r="D38" t="n">
-        <v>563.7517488437637</v>
       </c>
     </row>
   </sheetData>
